--- a/model/src/Llama3B_no_rag_results_medium.xlsx
+++ b/model/src/Llama3B_no_rag_results_medium.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367649DF-93CB-47CC-8C4A-183D97A1B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94015F7-5E28-4A83-B770-20E8169AE04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>question</t>
   </si>
@@ -263,9 +276,6 @@
 However, it's always best to check the specific requirements listed on the university's website or contact the admissions office directly for the most up-to-date information.</t>
   </si>
   <si>
-    <t>Is a degree in statistics necessary to apply for the postgraduate program in geospatial data science?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> not necessarily
 While a degree in statistics is beneficial, it's not always necessary to apply for a postgraduate program in geospatial data science. Many programs may accept students with backgrounds in computer science, geography, environmental science, or other related fields.
 However, having a strong foundation in statistical concepts and methods can be advantageous in this field. Geospatial data science often involves analyzing and interpreting large datasets, which requires a solid understanding of statistical techniques such as regression analysis, hypothesis testing, and machine learning algorithms.
@@ -535,27 +545,6 @@
 **Practical Applications**
 *   **Data Science Tools and Techniques**: These courses focus on practical skills, such as data visualization, data wrangling, and machine learning implementation using popular tools like Python, R, or SQL.
 *   **Project-Based Courses**: Many courses in the second semester involve working on real-world projects, where students apply their knowledge and skills to solve problems and analyze data.</t>
-  </si>
-  <si>
-    <t>How many total ECTS are covered in each academic year in the Bachelors in Data Science?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> program?
-The Bachelors in Data Science program is a 3-year undergraduate degree that covers approximately 180 ECTS points. 
-Here's how the distribution of ECTS points looks like for each academic year:
-Year 1: 60 ECTS
-Year 2: 60 ECTS
-Year 3: 60 ECTS
-Please note that these values may be subject to change, and it's always best to check with the institution or department for the most up-to-date information.
-In this case, we can calculate the total number of ECTS covered in each academic year as follows:
-Year 1: 60 ECTS
-Year 2: 60 ECTS
-Year 3: 60 ECTS
-Total ECTS = 60 + 60 + 60 = 180 ECTS
-Therefore, the total number of ECTS covered in each academic year in the Bachelors in Data Science program is 180 ECTS.</t>
-  </si>
-  <si>
-    <t>How many ECTS are allocated to Statistics and Probability Distributions in the Bachelors in Data Science?</t>
   </si>
   <si>
     <t xml:space="preserve"> program?
@@ -687,9 +676,6 @@
 4.  **IB Exams**: International Baccalaureate (IB) students who have completed IB exams in subjects like mathematics, computer science, or statistics may be considered for admission into data science programs.
 5.  **GPA**: Your high school grade point average (GPA) can also play a role in your admission decision. A strong GPA demonstrates your ability to succeed in challenging academic environments.
 These exams are not exhaustive, and some universities may have additional requirements or accept alternative forms of assessment. It's always best to check with the specific university or program you're interested in to determine their exact admission requirements.</t>
-  </si>
-  <si>
-    <t>How much does the entry exams value to enter the Bachelors in Data Science?</t>
   </si>
   <si>
     <t xml:space="preserve"> programs?
@@ -902,9 +888,6 @@
 The final answer is: $\boxed{275000}$</t>
   </si>
   <si>
-    <t>What are the entry requeirements for the postgraduate program in digital transformation?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> at the University of Cambridge
 The University of Cambridge does not have a specific "postgraduate program in digital transformation" that I am aware of. However, they do offer various master's and doctoral programs that may be relevant to digital transformation.
 Here are some examples:
@@ -1134,6 +1117,18 @@
 	+ Application review fees: $25-$100
 Please note that these are general estimates, and actual application fees may vary depending on the specific program and institution you're applying to. It's always best to check with the university directly for their most up-to-date application fees.</t>
   </si>
+  <si>
+    <t>What are the necessary relevant bachelor's degree I need to have in order to apply for the postgraduate program in geospatial data science?</t>
+  </si>
+  <si>
+    <t>How many ECTS are allocated to Big Data Analytics for Business in the postgraduate in digital enterprise management?</t>
+  </si>
+  <si>
+    <t>How much does the entry exams subjects value to enter the Bachelors in Data Science?</t>
+  </si>
+  <si>
+    <t>What are the steps I need to follow to register in the postgraduate program in culinary?</t>
+  </si>
 </sst>
 </file>
 
@@ -1151,6 +1146,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1495,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1648,10 +1644,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
       <c r="C14">
         <v>164.1316249370575</v>
@@ -1659,10 +1655,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
       <c r="C15">
         <v>133.67003393173221</v>
@@ -1670,10 +1666,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
       <c r="C16">
         <v>218.3750741481781</v>
@@ -1681,10 +1677,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
       </c>
       <c r="C17">
         <v>144.24139070510861</v>
@@ -1692,10 +1688,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
       <c r="C18">
         <v>129.75090980529791</v>
@@ -1703,10 +1699,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
       </c>
       <c r="C19">
         <v>224.66066861152649</v>
@@ -1714,10 +1710,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
       </c>
       <c r="C20">
         <v>320.32310032844538</v>
@@ -1725,10 +1721,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
       </c>
       <c r="C21">
         <v>273.00705885887152</v>
@@ -1736,10 +1732,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
       </c>
       <c r="C22">
         <v>184.2887895107269</v>
@@ -1747,10 +1743,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
       </c>
       <c r="C23">
         <v>203.8942410945892</v>
@@ -1758,10 +1754,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
       </c>
       <c r="C24">
         <v>201.77339911460879</v>
@@ -1769,10 +1765,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
       </c>
       <c r="C25">
         <v>121.20138430595399</v>
@@ -1780,10 +1776,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
       </c>
       <c r="C26">
         <v>165.4594988822937</v>
@@ -1791,10 +1787,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
       </c>
       <c r="C27">
         <v>76.425276756286621</v>
@@ -1802,10 +1798,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
       </c>
       <c r="C28">
         <v>197.34788227081299</v>
@@ -1813,254 +1809,243 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>108.1729407310486</v>
+        <v>73.393117189407349</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>73.393117189407349</v>
+        <v>243.7154030799866</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>243.7154030799866</v>
+        <v>305.0747013092041</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>305.0747013092041</v>
+        <v>206.38889002799991</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>206.38889002799991</v>
+        <v>175.9153714179993</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>175.9153714179993</v>
+        <v>280.09269452095032</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>280.09269452095032</v>
+        <v>110.634425163269</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>110.634425163269</v>
+        <v>172.91852211952209</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>172.91852211952209</v>
+        <v>197.3921391963959</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>197.3921391963959</v>
+        <v>117.2039494514465</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>117.2039494514465</v>
+        <v>64.703075885772705</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>64.703075885772705</v>
+        <v>334.30162811279303</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>334.30162811279303</v>
+        <v>353.36058378219599</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C42">
-        <v>353.36058378219599</v>
+        <v>205.7550559043884</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C43">
-        <v>205.7550559043884</v>
+        <v>197.95580554008481</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C44">
-        <v>197.95580554008481</v>
+        <v>130.33505058288571</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C45">
-        <v>130.33505058288571</v>
+        <v>183.33136224746701</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C46">
-        <v>183.33136224746701</v>
+        <v>9042.2771382331848</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C47">
-        <v>9042.2771382331848</v>
+        <v>197.53295540809631</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48">
-        <v>197.53295540809631</v>
+        <v>259.04821300506592</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49">
-        <v>259.04821300506592</v>
+        <v>224.78326940536499</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C50">
-        <v>224.78326940536499</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51">
         <v>249.99535202980039</v>
       </c>
     </row>

--- a/model/src/Llama3B_no_rag_results_medium.xlsx
+++ b/model/src/Llama3B_no_rag_results_medium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94015F7-5E28-4A83-B770-20E8169AE04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CD01C7-E639-445F-971D-AA76387B11C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1491,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,6 +2047,12 @@
       </c>
       <c r="C50">
         <v>249.99535202980039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <f>AVERAGE(C2:D50)</f>
+        <v>441.04119838013941</v>
       </c>
     </row>
   </sheetData>
